--- a/Financials/Quarterly/CHL_QTR_FIN.xlsx
+++ b/Financials/Quarterly/CHL_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47AE8FD-21FF-4B54-A63B-E502B93AC91A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHL" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>CHL</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -708,94 +743,94 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>56984100</v>
+        <v>58151800</v>
       </c>
       <c r="E8" s="3">
-        <v>51139400</v>
+        <v>52187300</v>
       </c>
       <c r="F8" s="3">
-        <v>56553500</v>
+        <v>57712300</v>
       </c>
       <c r="G8" s="3">
-        <v>49165500</v>
+        <v>50173000</v>
       </c>
       <c r="H8" s="3">
-        <v>53860100</v>
+        <v>54963800</v>
       </c>
       <c r="I8" s="3">
-        <v>46922100</v>
+        <v>47883600</v>
       </c>
       <c r="J8" s="3">
-        <v>50273800</v>
+        <v>51304000</v>
       </c>
       <c r="K8" s="3">
         <v>47530600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10354200</v>
+        <v>10566300</v>
       </c>
       <c r="E9" s="3">
-        <v>9487300</v>
+        <v>9681700</v>
       </c>
       <c r="F9" s="3">
-        <v>11129800</v>
+        <v>11357800</v>
       </c>
       <c r="G9" s="3">
-        <v>10045300</v>
+        <v>10251100</v>
       </c>
       <c r="H9" s="3">
-        <v>11509500</v>
+        <v>11745300</v>
       </c>
       <c r="I9" s="3">
-        <v>10025200</v>
+        <v>10230600</v>
       </c>
       <c r="J9" s="3">
-        <v>9118200</v>
+        <v>9305000</v>
       </c>
       <c r="K9" s="3">
         <v>7412000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>46629900</v>
+        <v>47585400</v>
       </c>
       <c r="E10" s="3">
-        <v>41652200</v>
+        <v>42505700</v>
       </c>
       <c r="F10" s="3">
-        <v>45423800</v>
+        <v>46354500</v>
       </c>
       <c r="G10" s="3">
-        <v>39120200</v>
+        <v>39921800</v>
       </c>
       <c r="H10" s="3">
-        <v>42350700</v>
+        <v>43218500</v>
       </c>
       <c r="I10" s="3">
-        <v>36896900</v>
+        <v>37653000</v>
       </c>
       <c r="J10" s="3">
-        <v>41155700</v>
+        <v>41999000</v>
       </c>
       <c r="K10" s="3">
         <v>40118600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -808,15 +843,15 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3390100</v>
+        <v>3459600</v>
       </c>
       <c r="E12" s="3">
-        <v>5528700</v>
+        <v>5642000</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -837,7 +872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -874,13 +909,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>1831400</v>
+        <v>1868900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>1049400</v>
+        <v>1070900</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -895,36 +930,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11081900</v>
+        <v>11309000</v>
       </c>
       <c r="E15" s="3">
-        <v>11279400</v>
+        <v>11510500</v>
       </c>
       <c r="F15" s="3">
-        <v>10578000</v>
+        <v>10794700</v>
       </c>
       <c r="G15" s="3">
-        <v>10233900</v>
+        <v>10443600</v>
       </c>
       <c r="H15" s="3">
-        <v>9921100</v>
+        <v>10124400</v>
       </c>
       <c r="I15" s="3">
-        <v>10058100</v>
+        <v>10264200</v>
       </c>
       <c r="J15" s="3">
-        <v>9881200</v>
+        <v>10083700</v>
       </c>
       <c r="K15" s="3">
         <v>9734600</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,65 +969,65 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>46849800</v>
+        <v>47809800</v>
       </c>
       <c r="E17" s="3">
-        <v>43555000</v>
+        <v>44447500</v>
       </c>
       <c r="F17" s="3">
-        <v>46668100</v>
+        <v>47624300</v>
       </c>
       <c r="G17" s="3">
-        <v>41609400</v>
+        <v>42462000</v>
       </c>
       <c r="H17" s="3">
-        <v>44242700</v>
+        <v>45149300</v>
       </c>
       <c r="I17" s="3">
-        <v>41068300</v>
+        <v>41909800</v>
       </c>
       <c r="J17" s="3">
-        <v>41159700</v>
+        <v>42003100</v>
       </c>
       <c r="K17" s="3">
         <v>39536900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10134300</v>
+        <v>10342000</v>
       </c>
       <c r="E18" s="3">
-        <v>7584500</v>
+        <v>7739900</v>
       </c>
       <c r="F18" s="3">
-        <v>9885500</v>
+        <v>10088000</v>
       </c>
       <c r="G18" s="3">
-        <v>7556100</v>
+        <v>7710900</v>
       </c>
       <c r="H18" s="3">
-        <v>9617400</v>
+        <v>9814500</v>
       </c>
       <c r="I18" s="3">
-        <v>5853800</v>
+        <v>5973800</v>
       </c>
       <c r="J18" s="3">
-        <v>9114100</v>
+        <v>9300900</v>
       </c>
       <c r="K18" s="3">
         <v>7993700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,65 +1040,65 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2113700</v>
+        <v>2157000</v>
       </c>
       <c r="E20" s="3">
-        <v>2121800</v>
+        <v>2165300</v>
       </c>
       <c r="F20" s="3">
-        <v>1951800</v>
+        <v>1991800</v>
       </c>
       <c r="G20" s="3">
-        <v>1992500</v>
+        <v>2033400</v>
       </c>
       <c r="H20" s="3">
-        <v>1843000</v>
+        <v>1880800</v>
       </c>
       <c r="I20" s="3">
-        <v>4240000</v>
+        <v>4326900</v>
       </c>
       <c r="J20" s="3">
-        <v>1695300</v>
+        <v>1730000</v>
       </c>
       <c r="K20" s="3">
         <v>1912100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>23329900</v>
+        <v>23807900</v>
       </c>
       <c r="E21" s="3">
-        <v>10407700</v>
+        <v>10621000</v>
       </c>
       <c r="F21" s="3">
-        <v>22415300</v>
+        <v>22874600</v>
       </c>
       <c r="G21" s="3">
-        <v>9861500</v>
+        <v>10063500</v>
       </c>
       <c r="H21" s="3">
-        <v>21381600</v>
+        <v>21819700</v>
       </c>
       <c r="I21" s="3">
-        <v>10758600</v>
+        <v>10979100</v>
       </c>
       <c r="J21" s="3">
-        <v>20690600</v>
+        <v>21114600</v>
       </c>
       <c r="K21" s="3">
         <v>12039900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,65 +1127,65 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12248000</v>
+        <v>12498900</v>
       </c>
       <c r="E23" s="3">
-        <v>9706300</v>
+        <v>9905200</v>
       </c>
       <c r="F23" s="3">
-        <v>11837300</v>
+        <v>12079800</v>
       </c>
       <c r="G23" s="3">
-        <v>9548600</v>
+        <v>9744300</v>
       </c>
       <c r="H23" s="3">
-        <v>11460500</v>
+        <v>11695300</v>
       </c>
       <c r="I23" s="3">
-        <v>10093900</v>
+        <v>10300700</v>
       </c>
       <c r="J23" s="3">
-        <v>10809400</v>
+        <v>11030900</v>
       </c>
       <c r="K23" s="3">
         <v>9905800</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2687100</v>
+        <v>2742200</v>
       </c>
       <c r="E24" s="3">
-        <v>2189400</v>
+        <v>2234300</v>
       </c>
       <c r="F24" s="3">
-        <v>2714900</v>
+        <v>2770500</v>
       </c>
       <c r="G24" s="3">
-        <v>2535900</v>
+        <v>2587800</v>
       </c>
       <c r="H24" s="3">
-        <v>2644800</v>
+        <v>2699000</v>
       </c>
       <c r="I24" s="3">
-        <v>2640000</v>
+        <v>2694100</v>
       </c>
       <c r="J24" s="3">
-        <v>2461500</v>
+        <v>2512000</v>
       </c>
       <c r="K24" s="3">
         <v>2408300</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,65 +1214,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9560900</v>
+        <v>9756800</v>
       </c>
       <c r="E26" s="3">
-        <v>7516800</v>
+        <v>7670900</v>
       </c>
       <c r="F26" s="3">
-        <v>9122400</v>
+        <v>9309300</v>
       </c>
       <c r="G26" s="3">
-        <v>7012800</v>
+        <v>7156500</v>
       </c>
       <c r="H26" s="3">
-        <v>8815700</v>
+        <v>8996300</v>
       </c>
       <c r="I26" s="3">
-        <v>7453900</v>
+        <v>7606600</v>
       </c>
       <c r="J26" s="3">
-        <v>8347800</v>
+        <v>8518900</v>
       </c>
       <c r="K26" s="3">
         <v>7497500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9546200</v>
+        <v>9741800</v>
       </c>
       <c r="E27" s="3">
-        <v>7504800</v>
+        <v>7658500</v>
       </c>
       <c r="F27" s="3">
-        <v>9114800</v>
+        <v>9301600</v>
       </c>
       <c r="G27" s="3">
-        <v>7005200</v>
+        <v>7148800</v>
       </c>
       <c r="H27" s="3">
-        <v>8809000</v>
+        <v>8989500</v>
       </c>
       <c r="I27" s="3">
-        <v>7446500</v>
+        <v>7599000</v>
       </c>
       <c r="J27" s="3">
-        <v>8338400</v>
+        <v>8509200</v>
       </c>
       <c r="K27" s="3">
         <v>7486200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,65 +1388,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2113700</v>
+        <v>-2157000</v>
       </c>
       <c r="E32" s="3">
-        <v>-2121800</v>
+        <v>-2165300</v>
       </c>
       <c r="F32" s="3">
-        <v>-1951800</v>
+        <v>-1991800</v>
       </c>
       <c r="G32" s="3">
-        <v>-1992500</v>
+        <v>-2033400</v>
       </c>
       <c r="H32" s="3">
-        <v>-1843000</v>
+        <v>-1880800</v>
       </c>
       <c r="I32" s="3">
-        <v>-4240000</v>
+        <v>-4326900</v>
       </c>
       <c r="J32" s="3">
-        <v>-1695300</v>
+        <v>-1730000</v>
       </c>
       <c r="K32" s="3">
         <v>-1912100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9546200</v>
+        <v>9741800</v>
       </c>
       <c r="E33" s="3">
-        <v>7504800</v>
+        <v>7658500</v>
       </c>
       <c r="F33" s="3">
-        <v>9114800</v>
+        <v>9301600</v>
       </c>
       <c r="G33" s="3">
-        <v>7005200</v>
+        <v>7148800</v>
       </c>
       <c r="H33" s="3">
-        <v>8809000</v>
+        <v>8989500</v>
       </c>
       <c r="I33" s="3">
-        <v>7446500</v>
+        <v>7599000</v>
       </c>
       <c r="J33" s="3">
-        <v>8338400</v>
+        <v>8509200</v>
       </c>
       <c r="K33" s="3">
         <v>7486200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,41 +1475,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9546200</v>
+        <v>9741800</v>
       </c>
       <c r="E35" s="3">
-        <v>7504800</v>
+        <v>7658500</v>
       </c>
       <c r="F35" s="3">
-        <v>9114800</v>
+        <v>9301600</v>
       </c>
       <c r="G35" s="3">
-        <v>7005200</v>
+        <v>7148800</v>
       </c>
       <c r="H35" s="3">
-        <v>8809000</v>
+        <v>8989500</v>
       </c>
       <c r="I35" s="3">
-        <v>7446500</v>
+        <v>7599000</v>
       </c>
       <c r="J35" s="3">
-        <v>8338400</v>
+        <v>8509200</v>
       </c>
       <c r="K35" s="3">
         <v>7486200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1503,7 +1538,7 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,7 +1551,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,268 +1564,268 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12034500</v>
+        <v>12281100</v>
       </c>
       <c r="E41" s="3">
-        <v>17544100</v>
+        <v>17903600</v>
       </c>
       <c r="F41" s="3">
-        <v>12071900</v>
+        <v>12319200</v>
       </c>
       <c r="G41" s="3">
-        <v>13148800</v>
+        <v>13418200</v>
       </c>
       <c r="H41" s="3">
-        <v>13932200</v>
+        <v>14217700</v>
       </c>
       <c r="I41" s="3">
-        <v>11611400</v>
+        <v>11849400</v>
       </c>
       <c r="J41" s="3">
-        <v>14664100</v>
+        <v>14964600</v>
       </c>
       <c r="K41" s="3">
         <v>10734500</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>56138700</v>
+        <v>57289100</v>
       </c>
       <c r="E42" s="3">
-        <v>50173500</v>
+        <v>51201600</v>
       </c>
       <c r="F42" s="3">
-        <v>57453700</v>
+        <v>58631000</v>
       </c>
       <c r="G42" s="3">
-        <v>53401000</v>
+        <v>54495300</v>
       </c>
       <c r="H42" s="3">
-        <v>53782800</v>
+        <v>54884800</v>
       </c>
       <c r="I42" s="3">
-        <v>49809300</v>
+        <v>50830000</v>
       </c>
       <c r="J42" s="3">
-        <v>51869900</v>
+        <v>52932800</v>
       </c>
       <c r="K42" s="3">
         <v>51701400</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10679900</v>
+        <v>10898800</v>
       </c>
       <c r="E43" s="3">
-        <v>8303200</v>
+        <v>8473300</v>
       </c>
       <c r="F43" s="3">
-        <v>16367000</v>
+        <v>16702400</v>
       </c>
       <c r="G43" s="3">
-        <v>15009500</v>
+        <v>15317100</v>
       </c>
       <c r="H43" s="3">
-        <v>5953500</v>
+        <v>6075500</v>
       </c>
       <c r="I43" s="3">
-        <v>6533000</v>
+        <v>6666900</v>
       </c>
       <c r="J43" s="3">
-        <v>4989600</v>
+        <v>5091800</v>
       </c>
       <c r="K43" s="3">
         <v>7044000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1547500</v>
+        <v>1579200</v>
       </c>
       <c r="E44" s="3">
-        <v>1486600</v>
+        <v>1517000</v>
       </c>
       <c r="F44" s="3">
-        <v>1062700</v>
+        <v>1084400</v>
       </c>
       <c r="G44" s="3">
-        <v>1284400</v>
+        <v>1310800</v>
       </c>
       <c r="H44" s="3">
-        <v>1010300</v>
+        <v>1031000</v>
       </c>
       <c r="I44" s="3">
-        <v>1453400</v>
+        <v>1483200</v>
       </c>
       <c r="J44" s="3">
-        <v>968100</v>
+        <v>988000</v>
       </c>
       <c r="K44" s="3">
         <v>2679100</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3165300</v>
+        <v>3230100</v>
       </c>
       <c r="E45" s="3">
-        <v>3671100</v>
+        <v>3746300</v>
       </c>
       <c r="F45" s="3">
-        <v>2609200</v>
+        <v>2662600</v>
       </c>
       <c r="G45" s="3">
-        <v>2472000</v>
+        <v>2522700</v>
       </c>
       <c r="H45" s="3">
-        <v>1712700</v>
+        <v>1747800</v>
       </c>
       <c r="I45" s="3">
-        <v>1664000</v>
+        <v>1698100</v>
       </c>
       <c r="J45" s="3">
-        <v>2193400</v>
+        <v>2238300</v>
       </c>
       <c r="K45" s="3">
         <v>2459700</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>83566000</v>
+        <v>85278300</v>
       </c>
       <c r="E46" s="3">
-        <v>81178400</v>
+        <v>82841900</v>
       </c>
       <c r="F46" s="3">
-        <v>89564400</v>
+        <v>91399600</v>
       </c>
       <c r="G46" s="3">
-        <v>85315800</v>
+        <v>87064000</v>
       </c>
       <c r="H46" s="3">
-        <v>76391500</v>
+        <v>77956800</v>
       </c>
       <c r="I46" s="3">
-        <v>71071200</v>
+        <v>72527500</v>
       </c>
       <c r="J46" s="3">
-        <v>74685100</v>
+        <v>76215500</v>
       </c>
       <c r="K46" s="3">
         <v>70813500</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19892200</v>
+        <v>20299800</v>
       </c>
       <c r="E47" s="3">
-        <v>19275700</v>
+        <v>19670700</v>
       </c>
       <c r="F47" s="3">
-        <v>18594000</v>
+        <v>18975000</v>
       </c>
       <c r="G47" s="3">
-        <v>18044100</v>
+        <v>18413800</v>
       </c>
       <c r="H47" s="3">
-        <v>25813200</v>
+        <v>26342200</v>
       </c>
       <c r="I47" s="3">
-        <v>25111800</v>
+        <v>25626400</v>
       </c>
       <c r="J47" s="3">
-        <v>10404500</v>
+        <v>10617700</v>
       </c>
       <c r="K47" s="3">
         <v>10264300</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>106054200</v>
+        <v>108227400</v>
       </c>
       <c r="E48" s="3">
-        <v>105602700</v>
+        <v>107766600</v>
       </c>
       <c r="F48" s="3">
-        <v>105285500</v>
+        <v>107442900</v>
       </c>
       <c r="G48" s="3">
-        <v>103576600</v>
+        <v>105698900</v>
       </c>
       <c r="H48" s="3">
-        <v>99888500</v>
+        <v>101935300</v>
       </c>
       <c r="I48" s="3">
-        <v>97967900</v>
+        <v>99975400</v>
       </c>
       <c r="J48" s="3">
-        <v>96379400</v>
+        <v>98354300</v>
       </c>
       <c r="K48" s="3">
         <v>183958500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5475400</v>
+        <v>5587600</v>
       </c>
       <c r="E49" s="3">
-        <v>5390200</v>
+        <v>5500700</v>
       </c>
       <c r="F49" s="3">
-        <v>5375700</v>
+        <v>5485800</v>
       </c>
       <c r="G49" s="3">
-        <v>5388300</v>
+        <v>5498700</v>
       </c>
       <c r="H49" s="3">
-        <v>5251600</v>
+        <v>5359200</v>
       </c>
       <c r="I49" s="3">
-        <v>5251600</v>
+        <v>5359200</v>
       </c>
       <c r="J49" s="3">
-        <v>5240700</v>
+        <v>5348100</v>
       </c>
       <c r="K49" s="3">
         <v>5254400</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,36 +1883,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12627500</v>
+        <v>12886300</v>
       </c>
       <c r="E52" s="3">
-        <v>9913800</v>
+        <v>10117000</v>
       </c>
       <c r="F52" s="3">
-        <v>10217600</v>
+        <v>10427000</v>
       </c>
       <c r="G52" s="3">
-        <v>8873400</v>
+        <v>9055200</v>
       </c>
       <c r="H52" s="3">
-        <v>9466200</v>
+        <v>9660200</v>
       </c>
       <c r="I52" s="3">
-        <v>8256200</v>
+        <v>8425400</v>
       </c>
       <c r="J52" s="3">
-        <v>8574800</v>
+        <v>8750600</v>
       </c>
       <c r="K52" s="3">
         <v>7892200</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,36 +1941,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>227615400</v>
+        <v>232279500</v>
       </c>
       <c r="E54" s="3">
-        <v>221360900</v>
+        <v>225896800</v>
       </c>
       <c r="F54" s="3">
-        <v>229037100</v>
+        <v>233730300</v>
       </c>
       <c r="G54" s="3">
-        <v>221198200</v>
+        <v>225730700</v>
       </c>
       <c r="H54" s="3">
-        <v>216811000</v>
+        <v>221253600</v>
       </c>
       <c r="I54" s="3">
-        <v>207658800</v>
+        <v>211913900</v>
       </c>
       <c r="J54" s="3">
-        <v>195284600</v>
+        <v>199286100</v>
       </c>
       <c r="K54" s="3">
         <v>196044700</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,7 +1983,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,36 +1996,36 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31047000</v>
+        <v>31683200</v>
       </c>
       <c r="E57" s="3">
-        <v>34390100</v>
+        <v>35094800</v>
       </c>
       <c r="F57" s="3">
-        <v>35213100</v>
+        <v>35934700</v>
       </c>
       <c r="G57" s="3">
-        <v>36654800</v>
+        <v>37405900</v>
       </c>
       <c r="H57" s="3">
-        <v>34158700</v>
+        <v>34858700</v>
       </c>
       <c r="I57" s="3">
-        <v>35517500</v>
+        <v>36245300</v>
       </c>
       <c r="J57" s="3">
-        <v>29816900</v>
+        <v>30427900</v>
       </c>
       <c r="K57" s="3">
         <v>33194500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2001,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>727200</v>
+        <v>742100</v>
       </c>
       <c r="G58" s="3">
-        <v>726900</v>
+        <v>741800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -2013,71 +2048,71 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="K58" s="3">
         <v>155300</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45478900</v>
+        <v>46410800</v>
       </c>
       <c r="E59" s="3">
-        <v>42685200</v>
+        <v>43559800</v>
       </c>
       <c r="F59" s="3">
-        <v>44150400</v>
+        <v>45055000</v>
       </c>
       <c r="G59" s="3">
-        <v>40625400</v>
+        <v>41457900</v>
       </c>
       <c r="H59" s="3">
-        <v>42096700</v>
+        <v>42959400</v>
       </c>
       <c r="I59" s="3">
-        <v>37348500</v>
+        <v>38113800</v>
       </c>
       <c r="J59" s="3">
-        <v>34447600</v>
+        <v>35153400</v>
       </c>
       <c r="K59" s="3">
         <v>52049100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>76525800</v>
+        <v>78093900</v>
       </c>
       <c r="E60" s="3">
-        <v>77075300</v>
+        <v>78654600</v>
       </c>
       <c r="F60" s="3">
-        <v>80090600</v>
+        <v>81731800</v>
       </c>
       <c r="G60" s="3">
-        <v>78007100</v>
+        <v>79605500</v>
       </c>
       <c r="H60" s="3">
-        <v>76255500</v>
+        <v>77818000</v>
       </c>
       <c r="I60" s="3">
-        <v>72866000</v>
+        <v>74359000</v>
       </c>
       <c r="J60" s="3">
-        <v>64274400</v>
+        <v>65591400</v>
       </c>
       <c r="K60" s="3">
         <v>65805900</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2094,48 +2129,48 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>726600</v>
+        <v>741500</v>
       </c>
       <c r="I61" s="3">
-        <v>726400</v>
+        <v>741300</v>
       </c>
       <c r="J61" s="3">
-        <v>726100</v>
+        <v>741000</v>
       </c>
       <c r="K61" s="3">
         <v>726000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>565600</v>
+        <v>577200</v>
       </c>
       <c r="E62" s="3">
-        <v>472600</v>
+        <v>482300</v>
       </c>
       <c r="F62" s="3">
-        <v>385700</v>
+        <v>393600</v>
       </c>
       <c r="G62" s="3">
-        <v>358800</v>
+        <v>366100</v>
       </c>
       <c r="H62" s="3">
-        <v>215200</v>
+        <v>219600</v>
       </c>
       <c r="I62" s="3">
-        <v>217300</v>
+        <v>221700</v>
       </c>
       <c r="J62" s="3">
-        <v>146600</v>
+        <v>149600</v>
       </c>
       <c r="K62" s="3">
         <v>228000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,36 +2257,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>77578000</v>
+        <v>79167700</v>
       </c>
       <c r="E66" s="3">
-        <v>78019900</v>
+        <v>79618600</v>
       </c>
       <c r="F66" s="3">
-        <v>80936900</v>
+        <v>82595400</v>
       </c>
       <c r="G66" s="3">
-        <v>78819100</v>
+        <v>80434200</v>
       </c>
       <c r="H66" s="3">
-        <v>77644900</v>
+        <v>79236000</v>
       </c>
       <c r="I66" s="3">
-        <v>74250600</v>
+        <v>75772100</v>
       </c>
       <c r="J66" s="3">
-        <v>65454100</v>
+        <v>66795300</v>
       </c>
       <c r="K66" s="3">
         <v>67060500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,7 +2299,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,36 +2415,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>91531500</v>
+        <v>93407000</v>
       </c>
       <c r="E72" s="3">
-        <v>84877600</v>
+        <v>86616800</v>
       </c>
       <c r="F72" s="3">
-        <v>89591700</v>
+        <v>91427500</v>
       </c>
       <c r="G72" s="3">
-        <v>83808700</v>
+        <v>85526000</v>
       </c>
       <c r="H72" s="3">
-        <v>80673500</v>
+        <v>82326600</v>
       </c>
       <c r="I72" s="3">
-        <v>74950400</v>
+        <v>76486200</v>
       </c>
       <c r="J72" s="3">
-        <v>71464200</v>
+        <v>72928500</v>
       </c>
       <c r="K72" s="3">
         <v>70816700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,36 +2531,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>150037400</v>
+        <v>153111800</v>
       </c>
       <c r="E76" s="3">
-        <v>143341000</v>
+        <v>146278200</v>
       </c>
       <c r="F76" s="3">
-        <v>148100200</v>
+        <v>151135000</v>
       </c>
       <c r="G76" s="3">
-        <v>142379000</v>
+        <v>145296500</v>
       </c>
       <c r="H76" s="3">
-        <v>139166000</v>
+        <v>142017700</v>
       </c>
       <c r="I76" s="3">
-        <v>133408200</v>
+        <v>136141800</v>
       </c>
       <c r="J76" s="3">
-        <v>129830500</v>
+        <v>132490800</v>
       </c>
       <c r="K76" s="3">
         <v>128984200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,12 +2589,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2588,36 +2623,36 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9546200</v>
+        <v>9741800</v>
       </c>
       <c r="E81" s="3">
-        <v>7504800</v>
+        <v>7658500</v>
       </c>
       <c r="F81" s="3">
-        <v>9114800</v>
+        <v>9301600</v>
       </c>
       <c r="G81" s="3">
-        <v>7005200</v>
+        <v>7148800</v>
       </c>
       <c r="H81" s="3">
-        <v>8809000</v>
+        <v>8989500</v>
       </c>
       <c r="I81" s="3">
-        <v>7446500</v>
+        <v>7599000</v>
       </c>
       <c r="J81" s="3">
-        <v>8338400</v>
+        <v>8509200</v>
       </c>
       <c r="K81" s="3">
         <v>7486200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,7 +2665,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2659,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,36 +2839,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>17206800</v>
+        <v>17559400</v>
       </c>
       <c r="E89" s="3">
-        <v>15597200</v>
+        <v>15916800</v>
       </c>
       <c r="F89" s="3">
-        <v>20107900</v>
+        <v>20519900</v>
       </c>
       <c r="G89" s="3">
-        <v>15968500</v>
+        <v>16295700</v>
       </c>
       <c r="H89" s="3">
-        <v>20927200</v>
+        <v>21356100</v>
       </c>
       <c r="I89" s="3">
-        <v>15395400</v>
+        <v>15710800</v>
       </c>
       <c r="J89" s="3">
-        <v>18793600</v>
+        <v>19178700</v>
       </c>
       <c r="K89" s="3">
         <v>13267900</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,36 +2881,36 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-11798600</v>
       </c>
       <c r="E91" s="3">
-        <v>-15658000</v>
+        <v>-15978900</v>
       </c>
       <c r="F91" s="3">
-        <v>-12412200</v>
+        <v>-12666500</v>
       </c>
       <c r="G91" s="3">
-        <v>-15333400</v>
+        <v>-15647600</v>
       </c>
       <c r="H91" s="3">
-        <v>-12037800</v>
+        <v>-12284500</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J91" s="3">
-        <v>-10145900</v>
+        <v>-10353800</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,36 +2968,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-18702600</v>
+        <v>-19085800</v>
       </c>
       <c r="E94" s="3">
-        <v>1630300</v>
+        <v>1663700</v>
       </c>
       <c r="F94" s="3">
-        <v>-17123400</v>
+        <v>-17474200</v>
       </c>
       <c r="G94" s="3">
-        <v>-13720000</v>
+        <v>-14001100</v>
       </c>
       <c r="H94" s="3">
-        <v>-14569500</v>
+        <v>-14868000</v>
       </c>
       <c r="I94" s="3">
-        <v>-9694200</v>
+        <v>-9892900</v>
       </c>
       <c r="J94" s="3">
-        <v>-11064900</v>
+        <v>-11291600</v>
       </c>
       <c r="K94" s="3">
         <v>-6494200</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,7 +3010,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,88 +3126,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4053400</v>
+        <v>-4136500</v>
       </c>
       <c r="E100" s="3">
-        <v>-11722400</v>
+        <v>-11962600</v>
       </c>
       <c r="F100" s="3">
-        <v>-4017600</v>
+        <v>-4100000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3067400</v>
+        <v>-3130300</v>
       </c>
       <c r="H100" s="3">
-        <v>-4052600</v>
+        <v>-4135600</v>
       </c>
       <c r="I100" s="3">
-        <v>-9463700</v>
+        <v>-9657600</v>
       </c>
       <c r="J100" s="3">
-        <v>-3117400</v>
+        <v>-3181300</v>
       </c>
       <c r="K100" s="3">
         <v>-2037300</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>39600</v>
+        <v>40400</v>
       </c>
       <c r="E101" s="3">
-        <v>-32900</v>
+        <v>-33500</v>
       </c>
       <c r="F101" s="3">
-        <v>-43800</v>
+        <v>-44700</v>
       </c>
       <c r="G101" s="3">
-        <v>35500</v>
+        <v>36200</v>
       </c>
       <c r="H101" s="3">
-        <v>15600</v>
+        <v>15900</v>
       </c>
       <c r="I101" s="3">
-        <v>35900</v>
+        <v>36700</v>
       </c>
       <c r="J101" s="3">
-        <v>-7700</v>
+        <v>-7900</v>
       </c>
       <c r="K101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5509600</v>
+        <v>-5622500</v>
       </c>
       <c r="E102" s="3">
-        <v>5472200</v>
+        <v>5584400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1076900</v>
+        <v>-1099000</v>
       </c>
       <c r="G102" s="3">
-        <v>-783400</v>
+        <v>-799500</v>
       </c>
       <c r="H102" s="3">
-        <v>2320800</v>
+        <v>2368300</v>
       </c>
       <c r="I102" s="3">
-        <v>-3726600</v>
+        <v>-3803000</v>
       </c>
       <c r="J102" s="3">
-        <v>4603600</v>
+        <v>4697900</v>
       </c>
       <c r="K102" s="3">
         <v>4003000</v>

--- a/Financials/Quarterly/CHL_QTR_FIN.xlsx
+++ b/Financials/Quarterly/CHL_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47AE8FD-21FF-4B54-A63B-E502B93AC91A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="CHL" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>CHL</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,148 +654,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>58151800</v>
+        <v>55875000</v>
       </c>
       <c r="E8" s="3">
-        <v>52187300</v>
+        <v>49498700</v>
       </c>
       <c r="F8" s="3">
-        <v>57712300</v>
+        <v>56220100</v>
       </c>
       <c r="G8" s="3">
-        <v>50173000</v>
+        <v>50453700</v>
       </c>
       <c r="H8" s="3">
-        <v>54963800</v>
+        <v>55795200</v>
       </c>
       <c r="I8" s="3">
+        <v>48506300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>53138000</v>
+      </c>
+      <c r="K8" s="3">
         <v>47883600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>51304000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>47530600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10566300</v>
+        <v>5684400</v>
       </c>
       <c r="E9" s="3">
-        <v>9681700</v>
+        <v>9067400</v>
       </c>
       <c r="F9" s="3">
-        <v>11357800</v>
+        <v>10215300</v>
       </c>
       <c r="G9" s="3">
-        <v>10251100</v>
+        <v>9360100</v>
       </c>
       <c r="H9" s="3">
-        <v>11745300</v>
+        <v>10980500</v>
       </c>
       <c r="I9" s="3">
+        <v>9910600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11355200</v>
+      </c>
+      <c r="K9" s="3">
         <v>10230600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>9305000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>7412000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>47585400</v>
+        <v>50190600</v>
       </c>
       <c r="E10" s="3">
-        <v>42505700</v>
+        <v>40431400</v>
       </c>
       <c r="F10" s="3">
-        <v>46354500</v>
+        <v>46004700</v>
       </c>
       <c r="G10" s="3">
-        <v>39921800</v>
+        <v>41093700</v>
       </c>
       <c r="H10" s="3">
-        <v>43218500</v>
+        <v>44814700</v>
       </c>
       <c r="I10" s="3">
+        <v>38595700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>41782800</v>
+      </c>
+      <c r="K10" s="3">
         <v>37653000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>41999000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>40118600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,22 +831,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>3459600</v>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>5642000</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
+        <v>2968600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3344700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5454500</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -871,8 +862,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -900,28 +897,34 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>139300</v>
       </c>
       <c r="E14" s="3">
-        <v>1868900</v>
+        <v>179400</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>1070900</v>
+        <v>1806800</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>1035400</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -929,37 +932,49 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11309000</v>
+        <v>13112900</v>
       </c>
       <c r="E15" s="3">
-        <v>11510500</v>
+        <v>11184700</v>
       </c>
       <c r="F15" s="3">
-        <v>10794700</v>
+        <v>10933300</v>
       </c>
       <c r="G15" s="3">
-        <v>10443600</v>
+        <v>11128200</v>
       </c>
       <c r="H15" s="3">
-        <v>10124400</v>
+        <v>10436200</v>
       </c>
       <c r="I15" s="3">
+        <v>10096700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>9788100</v>
+      </c>
+      <c r="K15" s="3">
         <v>10264200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>10083700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>9734600</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -968,66 +983,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>47809800</v>
+        <v>47301300</v>
       </c>
       <c r="E17" s="3">
-        <v>44447500</v>
+        <v>42080500</v>
       </c>
       <c r="F17" s="3">
-        <v>47624300</v>
+        <v>46221700</v>
       </c>
       <c r="G17" s="3">
-        <v>42462000</v>
+        <v>42971000</v>
       </c>
       <c r="H17" s="3">
-        <v>45149300</v>
+        <v>46042300</v>
       </c>
       <c r="I17" s="3">
+        <v>41051500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>43649500</v>
+      </c>
+      <c r="K17" s="3">
         <v>41909800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>42003100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>39536900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10342000</v>
+        <v>8573600</v>
       </c>
       <c r="E18" s="3">
-        <v>7739900</v>
+        <v>7418200</v>
       </c>
       <c r="F18" s="3">
-        <v>10088000</v>
+        <v>9998400</v>
       </c>
       <c r="G18" s="3">
-        <v>7710900</v>
+        <v>7482800</v>
       </c>
       <c r="H18" s="3">
-        <v>9814500</v>
+        <v>9752900</v>
       </c>
       <c r="I18" s="3">
+        <v>7454800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9488500</v>
+      </c>
+      <c r="K18" s="3">
         <v>5973800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>9300900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>7993700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1039,66 +1068,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2157000</v>
+        <v>1939100</v>
       </c>
       <c r="E20" s="3">
-        <v>2165300</v>
+        <v>2578900</v>
       </c>
       <c r="F20" s="3">
-        <v>1991800</v>
+        <v>2085300</v>
       </c>
       <c r="G20" s="3">
-        <v>2033400</v>
+        <v>2093400</v>
       </c>
       <c r="H20" s="3">
-        <v>1880800</v>
+        <v>1925600</v>
       </c>
       <c r="I20" s="3">
+        <v>1965800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1818300</v>
+      </c>
+      <c r="K20" s="3">
         <v>4326900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1730000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1912100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>23807900</v>
+        <v>23625700</v>
       </c>
       <c r="E21" s="3">
-        <v>10621000</v>
+        <v>10248500</v>
       </c>
       <c r="F21" s="3">
-        <v>22874600</v>
+        <v>23017100</v>
       </c>
       <c r="G21" s="3">
-        <v>10063500</v>
+        <v>10268100</v>
       </c>
       <c r="H21" s="3">
-        <v>21819700</v>
+        <v>22114700</v>
       </c>
       <c r="I21" s="3">
+        <v>9729200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>21094900</v>
+      </c>
+      <c r="K21" s="3">
         <v>10979100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>21114600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>12039900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1126,66 +1169,84 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12498900</v>
+        <v>10512800</v>
       </c>
       <c r="E23" s="3">
-        <v>9905200</v>
+        <v>9997100</v>
       </c>
       <c r="F23" s="3">
-        <v>12079800</v>
+        <v>12083700</v>
       </c>
       <c r="G23" s="3">
-        <v>9744300</v>
+        <v>9576100</v>
       </c>
       <c r="H23" s="3">
-        <v>11695300</v>
+        <v>11678600</v>
       </c>
       <c r="I23" s="3">
+        <v>9420600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>11306800</v>
+      </c>
+      <c r="K23" s="3">
         <v>10300700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>11030900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>9905800</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2742200</v>
+        <v>2460800</v>
       </c>
       <c r="E24" s="3">
-        <v>2234300</v>
+        <v>2506200</v>
       </c>
       <c r="F24" s="3">
-        <v>2770500</v>
+        <v>2651100</v>
       </c>
       <c r="G24" s="3">
-        <v>2587800</v>
+        <v>2160100</v>
       </c>
       <c r="H24" s="3">
-        <v>2699000</v>
+        <v>2678500</v>
       </c>
       <c r="I24" s="3">
+        <v>2501900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2609300</v>
+      </c>
+      <c r="K24" s="3">
         <v>2694100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2512000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2408300</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1213,66 +1274,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9756800</v>
+        <v>8052000</v>
       </c>
       <c r="E26" s="3">
-        <v>7670900</v>
+        <v>7490900</v>
       </c>
       <c r="F26" s="3">
-        <v>9309300</v>
+        <v>9432700</v>
       </c>
       <c r="G26" s="3">
-        <v>7156500</v>
+        <v>7416100</v>
       </c>
       <c r="H26" s="3">
-        <v>8996300</v>
+        <v>9000100</v>
       </c>
       <c r="I26" s="3">
+        <v>6918700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>8697500</v>
+      </c>
+      <c r="K26" s="3">
         <v>7606600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>8518900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>7497500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9741800</v>
+        <v>8043900</v>
       </c>
       <c r="E27" s="3">
-        <v>7658500</v>
+        <v>7481000</v>
       </c>
       <c r="F27" s="3">
-        <v>9301600</v>
+        <v>9418200</v>
       </c>
       <c r="G27" s="3">
-        <v>7148800</v>
+        <v>7404100</v>
       </c>
       <c r="H27" s="3">
-        <v>8989500</v>
+        <v>8992600</v>
       </c>
       <c r="I27" s="3">
+        <v>6911300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>8690900</v>
+      </c>
+      <c r="K27" s="3">
         <v>7599000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>8509200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>7486200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1300,8 +1379,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1329,8 +1414,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1358,8 +1449,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1387,66 +1484,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2157000</v>
+        <v>-1939100</v>
       </c>
       <c r="E32" s="3">
-        <v>-2165300</v>
+        <v>-2578900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1991800</v>
+        <v>-2085300</v>
       </c>
       <c r="G32" s="3">
-        <v>-2033400</v>
+        <v>-2093400</v>
       </c>
       <c r="H32" s="3">
-        <v>-1880800</v>
+        <v>-1925600</v>
       </c>
       <c r="I32" s="3">
+        <v>-1965800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1818300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4326900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1730000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1912100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9741800</v>
+        <v>8043900</v>
       </c>
       <c r="E33" s="3">
-        <v>7658500</v>
+        <v>7481000</v>
       </c>
       <c r="F33" s="3">
-        <v>9301600</v>
+        <v>9418200</v>
       </c>
       <c r="G33" s="3">
-        <v>7148800</v>
+        <v>7404100</v>
       </c>
       <c r="H33" s="3">
-        <v>8989500</v>
+        <v>8992600</v>
       </c>
       <c r="I33" s="3">
+        <v>6911300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>8690900</v>
+      </c>
+      <c r="K33" s="3">
         <v>7599000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>8509200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>7486200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1474,71 +1589,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9741800</v>
+        <v>8043900</v>
       </c>
       <c r="E35" s="3">
-        <v>7658500</v>
+        <v>7481000</v>
       </c>
       <c r="F35" s="3">
-        <v>9301600</v>
+        <v>9418200</v>
       </c>
       <c r="G35" s="3">
-        <v>7148800</v>
+        <v>7404100</v>
       </c>
       <c r="H35" s="3">
-        <v>8989500</v>
+        <v>8992600</v>
       </c>
       <c r="I35" s="3">
+        <v>6911300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>8690900</v>
+      </c>
+      <c r="K35" s="3">
         <v>7599000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>8509200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>7486200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1550,8 +1683,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1563,269 +1698,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12281100</v>
+        <v>10214500</v>
       </c>
       <c r="E41" s="3">
-        <v>17903600</v>
+        <v>8221700</v>
       </c>
       <c r="F41" s="3">
-        <v>12319200</v>
+        <v>11873100</v>
       </c>
       <c r="G41" s="3">
-        <v>13418200</v>
+        <v>17308900</v>
       </c>
       <c r="H41" s="3">
-        <v>14217700</v>
+        <v>11910000</v>
       </c>
       <c r="I41" s="3">
+        <v>12972500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>13745400</v>
+      </c>
+      <c r="K41" s="3">
         <v>11849400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>14964600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10734500</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>57289100</v>
+        <v>50773300</v>
       </c>
       <c r="E42" s="3">
-        <v>51201600</v>
+        <v>52845400</v>
       </c>
       <c r="F42" s="3">
-        <v>58631000</v>
+        <v>55386000</v>
       </c>
       <c r="G42" s="3">
-        <v>54495300</v>
+        <v>49500700</v>
       </c>
       <c r="H42" s="3">
-        <v>54884800</v>
+        <v>56683400</v>
       </c>
       <c r="I42" s="3">
+        <v>52685000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>53061600</v>
+      </c>
+      <c r="K42" s="3">
         <v>50830000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>52932800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>51701400</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10898800</v>
+        <v>14022900</v>
       </c>
       <c r="E43" s="3">
-        <v>8473300</v>
+        <v>10565000</v>
       </c>
       <c r="F43" s="3">
-        <v>16702400</v>
+        <v>10536700</v>
       </c>
       <c r="G43" s="3">
-        <v>15317100</v>
+        <v>8191800</v>
       </c>
       <c r="H43" s="3">
-        <v>6075500</v>
+        <v>16147500</v>
       </c>
       <c r="I43" s="3">
+        <v>14808300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5873600</v>
+      </c>
+      <c r="K43" s="3">
         <v>6666900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5091800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>7044000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1579200</v>
+        <v>1399400</v>
       </c>
       <c r="E44" s="3">
-        <v>1517000</v>
+        <v>1270800</v>
       </c>
       <c r="F44" s="3">
-        <v>1084400</v>
+        <v>1526800</v>
       </c>
       <c r="G44" s="3">
-        <v>1310800</v>
+        <v>1466700</v>
       </c>
       <c r="H44" s="3">
-        <v>1031000</v>
+        <v>1048400</v>
       </c>
       <c r="I44" s="3">
+        <v>1267200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>996800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1483200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>988000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2679100</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3230100</v>
+        <v>3739700</v>
       </c>
       <c r="E45" s="3">
-        <v>3746300</v>
+        <v>3875500</v>
       </c>
       <c r="F45" s="3">
-        <v>2662600</v>
+        <v>3122800</v>
       </c>
       <c r="G45" s="3">
-        <v>2522700</v>
+        <v>3621900</v>
       </c>
       <c r="H45" s="3">
-        <v>1747800</v>
+        <v>2574200</v>
       </c>
       <c r="I45" s="3">
+        <v>2438900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1689800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1698100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2238300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2459700</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>85278300</v>
+        <v>80149600</v>
       </c>
       <c r="E46" s="3">
-        <v>82841900</v>
+        <v>76778400</v>
       </c>
       <c r="F46" s="3">
-        <v>91399600</v>
+        <v>82445500</v>
       </c>
       <c r="G46" s="3">
-        <v>87064000</v>
+        <v>80090000</v>
       </c>
       <c r="H46" s="3">
-        <v>77956800</v>
+        <v>88363400</v>
       </c>
       <c r="I46" s="3">
+        <v>84171800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>75367200</v>
+      </c>
+      <c r="K46" s="3">
         <v>72527500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>76215500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>70813500</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>20299800</v>
+        <v>21378400</v>
       </c>
       <c r="E47" s="3">
-        <v>19670700</v>
+        <v>20935500</v>
       </c>
       <c r="F47" s="3">
-        <v>18975000</v>
+        <v>19625500</v>
       </c>
       <c r="G47" s="3">
-        <v>18413800</v>
+        <v>19017300</v>
       </c>
       <c r="H47" s="3">
-        <v>26342200</v>
+        <v>18344600</v>
       </c>
       <c r="I47" s="3">
+        <v>17802100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>25467100</v>
+      </c>
+      <c r="K47" s="3">
         <v>25626400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>10617700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>10264300</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>108227400</v>
+        <v>117810600</v>
       </c>
       <c r="E48" s="3">
-        <v>107766600</v>
+        <v>105985200</v>
       </c>
       <c r="F48" s="3">
-        <v>107442900</v>
+        <v>104632200</v>
       </c>
       <c r="G48" s="3">
-        <v>105698900</v>
+        <v>104186700</v>
       </c>
       <c r="H48" s="3">
-        <v>101935300</v>
+        <v>103873800</v>
       </c>
       <c r="I48" s="3">
+        <v>102187700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>98549100</v>
+      </c>
+      <c r="K48" s="3">
         <v>99975400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>98354300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>183958500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5587600</v>
+        <v>5375300</v>
       </c>
       <c r="E49" s="3">
-        <v>5500700</v>
+        <v>5446900</v>
       </c>
       <c r="F49" s="3">
-        <v>5485800</v>
+        <v>5402000</v>
       </c>
       <c r="G49" s="3">
-        <v>5498700</v>
+        <v>5317900</v>
       </c>
       <c r="H49" s="3">
+        <v>5303600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>5316100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5181200</v>
+      </c>
+      <c r="K49" s="3">
         <v>5359200</v>
       </c>
-      <c r="I49" s="3">
-        <v>5359200</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5348100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5254400</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1853,8 +2044,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1882,37 +2079,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12886300</v>
+        <v>11759600</v>
       </c>
       <c r="E52" s="3">
-        <v>10117000</v>
+        <v>11226300</v>
       </c>
       <c r="F52" s="3">
-        <v>10427000</v>
+        <v>12458200</v>
       </c>
       <c r="G52" s="3">
-        <v>9055200</v>
+        <v>9780900</v>
       </c>
       <c r="H52" s="3">
-        <v>9660200</v>
+        <v>10080600</v>
       </c>
       <c r="I52" s="3">
+        <v>8754400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>9339300</v>
+      </c>
+      <c r="K52" s="3">
         <v>8425400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>8750600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>7892200</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1940,37 +2149,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>232279500</v>
+        <v>236473500</v>
       </c>
       <c r="E54" s="3">
-        <v>225896800</v>
+        <v>220372400</v>
       </c>
       <c r="F54" s="3">
-        <v>233730300</v>
+        <v>224563400</v>
       </c>
       <c r="G54" s="3">
-        <v>225730700</v>
+        <v>218392800</v>
       </c>
       <c r="H54" s="3">
-        <v>221253600</v>
+        <v>225966100</v>
       </c>
       <c r="I54" s="3">
+        <v>218232200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>213903900</v>
+      </c>
+      <c r="K54" s="3">
         <v>211913900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>199286100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>196044700</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1982,8 +2203,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1995,129 +2218,155 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31683200</v>
+        <v>23996300</v>
       </c>
       <c r="E57" s="3">
-        <v>35094800</v>
+        <v>27844900</v>
       </c>
       <c r="F57" s="3">
-        <v>35934700</v>
+        <v>30630700</v>
       </c>
       <c r="G57" s="3">
-        <v>37405900</v>
+        <v>33929000</v>
       </c>
       <c r="H57" s="3">
-        <v>34858700</v>
+        <v>34741000</v>
       </c>
       <c r="I57" s="3">
+        <v>36163300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>33700700</v>
+      </c>
+      <c r="K57" s="3">
         <v>36245300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>30427900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>33194500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>3361400</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>742100</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
-        <v>741800</v>
-      </c>
-      <c r="H58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>717400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>717100</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>10100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>155300</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46410800</v>
+        <v>44634900</v>
       </c>
       <c r="E59" s="3">
-        <v>43559800</v>
+        <v>40221700</v>
       </c>
       <c r="F59" s="3">
-        <v>45055000</v>
+        <v>44869100</v>
       </c>
       <c r="G59" s="3">
-        <v>41457900</v>
+        <v>42112800</v>
       </c>
       <c r="H59" s="3">
-        <v>42959400</v>
+        <v>43558400</v>
       </c>
       <c r="I59" s="3">
+        <v>40080700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>41532300</v>
+      </c>
+      <c r="K59" s="3">
         <v>38113800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>35153400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>52049100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>78093900</v>
+        <v>71992700</v>
       </c>
       <c r="E60" s="3">
-        <v>78654600</v>
+        <v>68066600</v>
       </c>
       <c r="F60" s="3">
-        <v>81731800</v>
+        <v>75499700</v>
       </c>
       <c r="G60" s="3">
-        <v>79605500</v>
+        <v>76041800</v>
       </c>
       <c r="H60" s="3">
-        <v>77818000</v>
+        <v>79016700</v>
       </c>
       <c r="I60" s="3">
+        <v>76961100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>75233000</v>
+      </c>
+      <c r="K60" s="3">
         <v>74359000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>65591400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>65805900</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>8138600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2129,48 +2378,60 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>741500</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>716800</v>
+      </c>
+      <c r="K61" s="3">
         <v>741300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>741000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>726000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>577200</v>
+        <v>867000</v>
       </c>
       <c r="E62" s="3">
-        <v>482300</v>
+        <v>818300</v>
       </c>
       <c r="F62" s="3">
-        <v>393600</v>
+        <v>558000</v>
       </c>
       <c r="G62" s="3">
-        <v>366100</v>
+        <v>466300</v>
       </c>
       <c r="H62" s="3">
-        <v>219600</v>
+        <v>380500</v>
       </c>
       <c r="I62" s="3">
+        <v>354000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>212400</v>
+      </c>
+      <c r="K62" s="3">
         <v>221700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>149600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>228000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2198,8 +2459,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2227,8 +2494,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2256,37 +2529,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>79167700</v>
+        <v>81494800</v>
       </c>
       <c r="E66" s="3">
-        <v>79618600</v>
+        <v>69373300</v>
       </c>
       <c r="F66" s="3">
-        <v>82595400</v>
+        <v>76537800</v>
       </c>
       <c r="G66" s="3">
-        <v>80434200</v>
+        <v>76973700</v>
       </c>
       <c r="H66" s="3">
-        <v>79236000</v>
+        <v>79851600</v>
       </c>
       <c r="I66" s="3">
+        <v>77762300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>76603800</v>
+      </c>
+      <c r="K66" s="3">
         <v>75772100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>66795300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>67060500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2298,8 +2583,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2327,8 +2614,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2356,8 +2649,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2385,8 +2684,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2414,37 +2719,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>93407000</v>
+        <v>97114000</v>
       </c>
       <c r="E72" s="3">
-        <v>86616800</v>
+        <v>93153100</v>
       </c>
       <c r="F72" s="3">
-        <v>91427500</v>
+        <v>90304200</v>
       </c>
       <c r="G72" s="3">
-        <v>85526000</v>
+        <v>83739500</v>
       </c>
       <c r="H72" s="3">
-        <v>82326600</v>
+        <v>88390400</v>
       </c>
       <c r="I72" s="3">
+        <v>82684900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>79591800</v>
+      </c>
+      <c r="K72" s="3">
         <v>76486200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>72928500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>70816700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2472,8 +2789,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2501,8 +2824,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2530,37 +2859,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>153111800</v>
+        <v>154978800</v>
       </c>
       <c r="E76" s="3">
-        <v>146278200</v>
+        <v>150999100</v>
       </c>
       <c r="F76" s="3">
-        <v>151135000</v>
+        <v>148025600</v>
       </c>
       <c r="G76" s="3">
-        <v>145296500</v>
+        <v>141419100</v>
       </c>
       <c r="H76" s="3">
-        <v>142017700</v>
+        <v>146114400</v>
       </c>
       <c r="I76" s="3">
+        <v>140469900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>137300000</v>
+      </c>
+      <c r="K76" s="3">
         <v>136141800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>132490800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>128984200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2588,71 +2929,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9741800</v>
+        <v>8043900</v>
       </c>
       <c r="E81" s="3">
-        <v>7658500</v>
+        <v>7481000</v>
       </c>
       <c r="F81" s="3">
-        <v>9301600</v>
+        <v>9418200</v>
       </c>
       <c r="G81" s="3">
-        <v>7148800</v>
+        <v>7404100</v>
       </c>
       <c r="H81" s="3">
-        <v>8989500</v>
+        <v>8992600</v>
       </c>
       <c r="I81" s="3">
+        <v>6911300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>8690900</v>
+      </c>
+      <c r="K81" s="3">
         <v>7599000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>8509200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>7486200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2664,8 +3023,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2693,8 +3054,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2722,8 +3089,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2751,8 +3124,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2780,8 +3159,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2809,8 +3194,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2838,37 +3229,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>17559400</v>
+        <v>18104600</v>
       </c>
       <c r="E89" s="3">
-        <v>15916800</v>
+        <v>12602400</v>
       </c>
       <c r="F89" s="3">
-        <v>20519900</v>
+        <v>16976100</v>
       </c>
       <c r="G89" s="3">
-        <v>16295700</v>
+        <v>15388100</v>
       </c>
       <c r="H89" s="3">
-        <v>21356100</v>
+        <v>19838300</v>
       </c>
       <c r="I89" s="3">
+        <v>15754400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>20646600</v>
+      </c>
+      <c r="K89" s="3">
         <v>15710800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>19178700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>13267900</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2880,37 +3283,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11798600</v>
+        <v>-12224500</v>
       </c>
       <c r="E91" s="3">
-        <v>-15978900</v>
+        <v>-16198200</v>
       </c>
       <c r="F91" s="3">
-        <v>-12666500</v>
+        <v>-11406700</v>
       </c>
       <c r="G91" s="3">
-        <v>-15647600</v>
+        <v>-15448100</v>
       </c>
       <c r="H91" s="3">
-        <v>-12284500</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+        <v>-12245700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-15127800</v>
       </c>
       <c r="J91" s="3">
-        <v>-10353800</v>
+        <v>-11876400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3">
+        <v>-10353800</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2938,8 +3349,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2967,37 +3384,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19085800</v>
+        <v>-10708600</v>
       </c>
       <c r="E94" s="3">
-        <v>1663700</v>
+        <v>-11999100</v>
       </c>
       <c r="F94" s="3">
-        <v>-17474200</v>
+        <v>-18451800</v>
       </c>
       <c r="G94" s="3">
-        <v>-14001100</v>
+        <v>1608400</v>
       </c>
       <c r="H94" s="3">
-        <v>-14868000</v>
+        <v>-16893800</v>
       </c>
       <c r="I94" s="3">
+        <v>-13536000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-14374100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9892900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-11291600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-6494200</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3009,8 +3438,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3038,8 +3469,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3067,8 +3504,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3096,8 +3539,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3125,91 +3574,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4136500</v>
+        <v>-5405000</v>
       </c>
       <c r="E100" s="3">
-        <v>-11962600</v>
+        <v>-4296900</v>
       </c>
       <c r="F100" s="3">
-        <v>-4100000</v>
+        <v>-3999100</v>
       </c>
       <c r="G100" s="3">
-        <v>-3130300</v>
+        <v>-11565200</v>
       </c>
       <c r="H100" s="3">
-        <v>-4135600</v>
+        <v>-3963800</v>
       </c>
       <c r="I100" s="3">
+        <v>-3026300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-3998200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-9657600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-3181300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2037300</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>40400</v>
+        <v>1900</v>
       </c>
       <c r="E101" s="3">
-        <v>-33500</v>
+        <v>42200</v>
       </c>
       <c r="F101" s="3">
-        <v>-44700</v>
+        <v>39000</v>
       </c>
       <c r="G101" s="3">
-        <v>36200</v>
+        <v>-32400</v>
       </c>
       <c r="H101" s="3">
-        <v>15900</v>
+        <v>-43200</v>
       </c>
       <c r="I101" s="3">
+        <v>35000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K101" s="3">
         <v>36700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-7900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5622500</v>
+        <v>1992800</v>
       </c>
       <c r="E102" s="3">
-        <v>5584400</v>
+        <v>-3651400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1099000</v>
+        <v>-5435700</v>
       </c>
       <c r="G102" s="3">
-        <v>-799500</v>
+        <v>5398900</v>
       </c>
       <c r="H102" s="3">
-        <v>2368300</v>
+        <v>-1062500</v>
       </c>
       <c r="I102" s="3">
+        <v>-772900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2289700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3803000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>4697900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4003000</v>
       </c>
     </row>
